--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9373" uniqueCount="3343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9343" uniqueCount="3332">
   <si>
     <t>统计级别</t>
   </si>
@@ -10164,33 +10164,6 @@
   <si>
     <t>黔东南苗族侗族自治州</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从1开始累计</t>
-  </si>
-  <si>
-    <t>格式为“YYYY/MM/DD HH:MM”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写，不确定的地区写“地区待确认”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写</t>
-  </si>
-  <si>
-    <t>不能填0</t>
-  </si>
-  <si>
-    <t>所有内容，包括标题</t>
-  </si>
-  <si>
-    <t>值为“手动”、“自动”</t>
-  </si>
-  <si>
-    <t>值为“未核查”、“已核查”</t>
-  </si>
-  <si>
-    <t>值为“核查通过”、“核查未通过”</t>
   </si>
   <si>
     <t>序号</t>
@@ -10299,30 +10272,6 @@
     <rPh sb="0" eb="1">
       <t>zhong'guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能填0，正数核增，负数核减</t>
-    <rPh sb="0" eb="1">
-      <t>bu'neng'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>he'zeng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'shu'he'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照规范文件填写，包含直辖市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为“国家级”、“省级”、“城市级”、“区县级”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10568,6 +10517,10 @@
 无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
 目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
 患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日36时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>http://wsjk.gansu.gov.cn/single/10910/84194.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11033,10 +10986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11075,967 +11028,864 @@
     <col min="41" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3297</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>3252</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>3253</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3254</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>3296</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>3253</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>3254</v>
+        <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>3255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>3255</v>
+        <v>3261</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="Q1" s="16" t="s">
+        <v>3263</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>3264</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3265</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>3266</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3267</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>3268</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>3269</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>3270</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>3271</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>3273</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>3274</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>3275</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>3276</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>3277</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>3278</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>3279</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>3280</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>3281</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="409.5">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43877.833333333336</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43878.833333333336</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
+        <v>91</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>58</v>
+      </c>
+      <c r="P2" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="21">
+        <v>43878.9375</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>3313</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3331</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="Z2" s="15">
+        <v>43879.415277777778</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:40" ht="409.5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>3295</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>3295</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>3256</v>
-      </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
-        <v>3258</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AN1" s="16"/>
-    </row>
-    <row r="2" spans="1:40" s="18" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="C3" s="15">
+        <v>43877.833333333336</v>
+      </c>
+      <c r="D3" s="20">
+        <v>43878.833333333336</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3296</v>
+      </c>
+      <c r="I3" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>3268</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>3269</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>3270</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>3271</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>3272</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>3274</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>3275</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>3276</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>3277</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>3278</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>3279</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>3280</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>3281</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>3282</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>3283</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>3284</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>3285</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>3286</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>3287</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>3288</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>3289</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>3290</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>3291</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="409.5">
-      <c r="A3" s="12">
+      <c r="N3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43877.833333333336</v>
-      </c>
-      <c r="D3" s="14">
-        <v>43878.833333333336</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3305</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>91</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2</v>
-      </c>
-      <c r="O3" s="12">
-        <v>58</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="T3" s="21">
+      <c r="T3" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>3325</v>
+        <v>3316</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>3323</v>
-      </c>
-      <c r="W3" s="15"/>
+        <v>3312</v>
+      </c>
       <c r="Z3" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3327</v>
-      </c>
-      <c r="AD3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+        <v>3315</v>
+      </c>
     </row>
     <row r="4" spans="1:40" ht="409.5">
-      <c r="A4" s="13">
-        <v>2</v>
+      <c r="A4" s="12">
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C4" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C4" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>3308</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13">
-        <v>1</v>
-      </c>
-      <c r="T4" s="15">
+        <v>3297</v>
+      </c>
+      <c r="T4" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>3328</v>
+        <v>3317</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>3324</v>
+        <v>3311</v>
       </c>
       <c r="Z4" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="409.5">
-      <c r="A5" s="12">
-        <v>3</v>
+      <c r="A5" s="13">
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C5" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C5" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>3309</v>
-      </c>
-      <c r="T5" s="21">
+        <v>3298</v>
+      </c>
+      <c r="T5" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>3329</v>
+        <v>3318</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z5" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="409.5">
-      <c r="A6" s="13">
-        <v>4</v>
+      <c r="A6" s="12">
+        <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C6" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C6" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>3310</v>
-      </c>
-      <c r="T6" s="15">
+        <v>3299</v>
+      </c>
+      <c r="T6" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>3330</v>
+        <v>3319</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z6" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="409.5">
-      <c r="A7" s="12">
-        <v>5</v>
+      <c r="A7" s="13">
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C7" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C7" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="T7" s="15">
+        <v>43878.9375</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>3320</v>
+      </c>
+      <c r="V7" s="22" t="s">
         <v>3311</v>
-      </c>
-      <c r="T7" s="21">
-        <v>43878.9375</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>3331</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>3323</v>
       </c>
       <c r="Z7" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.5">
-      <c r="A8" s="13">
-        <v>6</v>
+      <c r="A8" s="12">
+        <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C8" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C8" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>3312</v>
-      </c>
-      <c r="T8" s="15">
+        <v>3301</v>
+      </c>
+      <c r="T8" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>3332</v>
+        <v>3321</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z8" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="409.5">
-      <c r="A9" s="12">
-        <v>7</v>
+      <c r="A9" s="13">
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C9" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C9" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>3313</v>
-      </c>
-      <c r="T9" s="21">
+        <v>3302</v>
+      </c>
+      <c r="T9" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>3333</v>
+        <v>3322</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z9" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.5">
-      <c r="A10" s="13">
-        <v>8</v>
+      <c r="A10" s="12">
+        <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C10" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C10" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>3314</v>
-      </c>
-      <c r="T10" s="15">
+        <v>3303</v>
+      </c>
+      <c r="T10" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>3334</v>
+        <v>3323</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z10" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="409.5">
-      <c r="A11" s="12">
-        <v>9</v>
+      <c r="A11" s="13">
+        <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C11" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C11" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>3315</v>
-      </c>
-      <c r="T11" s="21">
+        <v>3304</v>
+      </c>
+      <c r="T11" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>3335</v>
+        <v>3324</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z11" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="409.5">
-      <c r="A12" s="13">
-        <v>10</v>
+      <c r="A12" s="12">
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C12" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C12" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>3305</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>3316</v>
-      </c>
-      <c r="T12" s="15">
+      <c r="T12" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>3336</v>
+        <v>3325</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z12" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="409.5">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43877.833333333336</v>
+      </c>
+      <c r="D13" s="20">
+        <v>43878.833333333336</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>3306</v>
+      </c>
+      <c r="T13" s="15">
+        <v>43878.9375</v>
+      </c>
+      <c r="U13" s="23" t="s">
         <v>3326</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="409.5">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C13" s="14">
-        <v>43877.833333333336</v>
-      </c>
-      <c r="D13" s="14">
-        <v>43878.833333333336</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>3305</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>3317</v>
-      </c>
-      <c r="T13" s="21">
-        <v>43878.9375</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>3337</v>
-      </c>
       <c r="V13" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z13" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB13" s="13" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="409.5">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C14" s="14">
+        <v>43877.833333333336</v>
+      </c>
+      <c r="D14" s="14">
+        <v>43878.833333333336</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>3307</v>
+      </c>
+      <c r="T14" s="21">
+        <v>43878.9375</v>
+      </c>
+      <c r="U14" s="23" t="s">
         <v>3327</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="409.5">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43877.833333333336</v>
-      </c>
-      <c r="D14" s="20">
-        <v>43878.833333333336</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>3305</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>3318</v>
-      </c>
-      <c r="T14" s="15">
-        <v>43878.9375</v>
-      </c>
-      <c r="U14" s="23" t="s">
-        <v>3338</v>
-      </c>
       <c r="V14" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z14" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="409.5">
-      <c r="A15" s="12">
-        <v>13</v>
+      <c r="A15" s="13">
+        <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C15" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C15" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>3319</v>
-      </c>
-      <c r="T15" s="21">
+        <v>3308</v>
+      </c>
+      <c r="T15" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>3339</v>
+        <v>3328</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z15" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="409.5">
-      <c r="A16" s="13">
-        <v>14</v>
+      <c r="A16" s="12">
+        <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C16" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C16" s="14">
         <v>43877.833333333336</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="14">
         <v>43878.833333333336</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>3320</v>
-      </c>
-      <c r="T16" s="15">
+        <v>3309</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="T16" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>3340</v>
+        <v>3329</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z16" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="409.5">
-      <c r="A17" s="12">
-        <v>15</v>
+      <c r="A17" s="13">
+        <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C17" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C17" s="15">
         <v>43877.833333333336</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="20">
         <v>43878.833333333336</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>3321</v>
-      </c>
-      <c r="N17" s="13">
-        <v>1</v>
-      </c>
-      <c r="T17" s="21">
+        <v>3310</v>
+      </c>
+      <c r="T17" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>3341</v>
+        <v>3330</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="Z17" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="409.5">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C18" s="15">
-        <v>43877.833333333336</v>
-      </c>
-      <c r="D18" s="20">
-        <v>43878.833333333336</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>3305</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>3322</v>
-      </c>
-      <c r="T18" s="15">
-        <v>43878.9375</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>3342</v>
-      </c>
-      <c r="V18" s="22" t="s">
-        <v>3323</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>43879.415277777778</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>3326</v>
-      </c>
-      <c r="AB18" s="13" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="12"/>
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576">
-      <formula1>INDIRECT($F4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>INDIRECT($G3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V3" r:id="rId1"/>
-    <hyperlink ref="V4" r:id="rId2"/>
-    <hyperlink ref="V5" r:id="rId3"/>
-    <hyperlink ref="V6" r:id="rId4"/>
-    <hyperlink ref="V9" r:id="rId5"/>
-    <hyperlink ref="V12" r:id="rId6"/>
-    <hyperlink ref="V15" r:id="rId7"/>
-    <hyperlink ref="V18" r:id="rId8"/>
-    <hyperlink ref="V7" r:id="rId9"/>
-    <hyperlink ref="V10" r:id="rId10"/>
-    <hyperlink ref="V13" r:id="rId11"/>
-    <hyperlink ref="V16" r:id="rId12"/>
-    <hyperlink ref="V8" r:id="rId13"/>
-    <hyperlink ref="V11" r:id="rId14"/>
-    <hyperlink ref="V14" r:id="rId15"/>
-    <hyperlink ref="V17" r:id="rId16"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3" r:id="rId2"/>
+    <hyperlink ref="V4" r:id="rId3"/>
+    <hyperlink ref="V5" r:id="rId4"/>
+    <hyperlink ref="V8" r:id="rId5"/>
+    <hyperlink ref="V11" r:id="rId6"/>
+    <hyperlink ref="V14" r:id="rId7"/>
+    <hyperlink ref="V17" r:id="rId8"/>
+    <hyperlink ref="V6" r:id="rId9"/>
+    <hyperlink ref="V9" r:id="rId10"/>
+    <hyperlink ref="V12" r:id="rId11"/>
+    <hyperlink ref="V15" r:id="rId12"/>
+    <hyperlink ref="V7" r:id="rId13"/>
+    <hyperlink ref="V10" r:id="rId14"/>
+    <hyperlink ref="V13" r:id="rId15"/>
+    <hyperlink ref="V16" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -12046,7 +11896,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12083,7 +11933,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3304</v>
+        <v>3292</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -12201,7 +12051,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>412</v>
@@ -12878,7 +12728,7 @@
         <v>212</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>213</v>
@@ -12996,7 +12846,7 @@
         <v>240</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>241</v>
@@ -13102,7 +12952,7 @@
         <v>264</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>265</v>
@@ -13223,7 +13073,7 @@
         <v>292</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>293</v>
@@ -13235,7 +13085,7 @@
         <v>3216</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>3243</v>
@@ -13272,7 +13122,7 @@
         <v>299</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>300</v>
@@ -13290,7 +13140,7 @@
         <v>303</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>304</v>
@@ -13323,7 +13173,7 @@
         <v>312</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>313</v>
@@ -13427,7 +13277,7 @@
         <v>336</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>337</v>
@@ -13464,10 +13314,10 @@
         <v>449</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>344</v>
@@ -13485,13 +13335,13 @@
         <v>347</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>348</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>349</v>
@@ -13558,7 +13408,7 @@
         <v>450</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>362</v>
@@ -13643,13 +13493,13 @@
         <v>379</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>380</v>
@@ -13719,7 +13569,7 @@
         <v>452</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1130</v>
@@ -13737,13 +13587,13 @@
         <v>396</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>397</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>398</v>
@@ -13758,7 +13608,7 @@
         <v>400</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>391</v>
@@ -13770,7 +13620,7 @@
         <v>3222</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -13845,19 +13695,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>415</v>
@@ -13878,7 +13728,7 @@
         <v>419</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>413</v>
@@ -13908,7 +13758,7 @@
         <v>423</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>424</v>
@@ -13947,7 +13797,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="U20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>430</v>
@@ -13968,7 +13818,7 @@
         <v>429</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN20" s="1"/>
     </row>
@@ -13989,7 +13839,7 @@
         <v>436</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>2368</v>
@@ -14031,7 +13881,7 @@
         <v>438</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN22" s="1"/>
     </row>
@@ -14049,13 +13899,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>2370</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>442</v>
@@ -14128,7 +13978,7 @@
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
@@ -14440,7 +14290,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="AA40" s="19" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="AN40" s="1"/>
     </row>
@@ -14458,7 +14308,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="AA41" s="19" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="AN41" s="1"/>
     </row>
@@ -14476,7 +14326,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="AA42" s="19" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="AN42" s="1"/>
     </row>
@@ -14494,7 +14344,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN43" s="1"/>
     </row>
@@ -55871,7 +55721,7 @@
         <v>38</v>
       </c>
       <c r="B2744" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="C2744" s="2"/>
       <c r="D2744" s="2"/>

--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\疫情数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10988,8 +10988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11820,6 +11820,18 @@
       </c>
       <c r="G17" s="12" t="s">
         <v>3310</v>
+      </c>
+      <c r="K17" s="13">
+        <v>4</v>
+      </c>
+      <c r="M17" s="13">
+        <v>91</v>
+      </c>
+      <c r="O17" s="13">
+        <v>58</v>
+      </c>
+      <c r="P17" s="13">
+        <v>2</v>
       </c>
       <c r="T17" s="15">
         <v>43878.9375</v>

--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200217.xlsx
@@ -10382,6 +10382,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日22时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日23时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日24时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日25时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日26时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日27时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
+发布时间：2020-02-17 22:30:04 访问量：39533
+     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
+无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
+目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
+患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日28时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>http://wsjk.gansu.gov.cn/single/10910/84194.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
 发布时间：2020-02-17 22:30:04 访问量：39533
      2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
@@ -10391,136 +10459,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手动</t>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日21时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陈志磊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日22时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日23时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日24时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日25时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日26时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日27时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日28时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日29时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日30时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日31时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日32时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日33时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日34时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日35时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>甘肃新增1例新型冠状病毒肺炎确诊病例累计91例
-发布时间：2020-02-17 22:30:04 访问量：39533
-     2月16日20时至2月17日20时，甘肃省新增1例新型冠状病毒肺炎确诊病例，兰州市1例。新增出院4例。截至2月17日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院58例，累计死亡病例2例。现有31例在定点医院进行隔离治疗，其中兰州市14例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、陇南市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
-无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
-目前，累计追踪到密切接触者4002人，已解除医学观察3265人，其余737人正在接受医学观察。
-患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日36时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
-  </si>
-  <si>
-    <t>http://wsjk.gansu.gov.cn/single/10910/84194.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日22时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日23时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日24时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日25时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日26时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日27时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
+  </si>
+  <si>
+    <t>患者，席某某，男性，57岁，陕西汉中人，现居住兰州市城关区。1月25日乘飞机从兰州前往北京，曾与北京市一确诊病例在同一单元内居住。2月7日出现咳嗽，偶有白痰，自行服药症状未见缓解，2月10日乘机返回兰州。2月12日出现发热，体温最高38.3℃，自服“连花清瘟胶囊”2天，效果不佳。2月14日前往兰大一院发热门诊就诊后住院隔离治疗，胸部CT显示：双肺多发磨片状玻璃影。2月16日28时确诊为新型冠状病毒肺炎。目前，在兰大一院住院隔离治疗，病情平稳。</t>
   </si>
 </sst>
 </file>
@@ -10988,8 +10949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11150,7 +11111,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.5">
+    <row r="2" spans="1:40" ht="16.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11197,26 +11158,26 @@
         <v>43878.9375</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>3313</v>
+        <v>3323</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15">
         <v>43879.415277777778</v>
       </c>
       <c r="AA2" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>3315</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="409.5">
+    <row r="3" spans="1:40" ht="363">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11241,14 +11202,20 @@
       <c r="I3" s="13">
         <v>1</v>
       </c>
+      <c r="M3" s="13">
+        <v>36</v>
+      </c>
       <c r="N3" s="13">
         <v>1</v>
       </c>
+      <c r="O3" s="13">
+        <v>20</v>
+      </c>
       <c r="T3" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>3316</v>
+        <v>3324</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>3312</v>
@@ -11257,10 +11224,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="409.5">
@@ -11289,7 +11256,7 @@
         <v>43878.9375</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>3311</v>
@@ -11298,13 +11265,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="409.5">
+    </row>
+    <row r="5" spans="1:40" ht="363">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11326,11 +11293,17 @@
       <c r="G5" s="12" t="s">
         <v>3298</v>
       </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>1</v>
+      </c>
       <c r="T5" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>3318</v>
+        <v>3325</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>3311</v>
@@ -11339,10 +11312,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="409.5">
@@ -11367,11 +11340,17 @@
       <c r="G6" s="12" t="s">
         <v>3299</v>
       </c>
+      <c r="M6" s="13">
+        <v>4</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
       <c r="T6" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="V6" s="22" t="s">
         <v>3311</v>
@@ -11380,13 +11359,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA6" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB6" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="409.5">
+    </row>
+    <row r="7" spans="1:40" ht="363">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11408,11 +11387,17 @@
       <c r="G7" s="12" t="s">
         <v>3300</v>
       </c>
+      <c r="M7" s="13">
+        <v>12</v>
+      </c>
+      <c r="O7" s="13">
+        <v>9</v>
+      </c>
       <c r="T7" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>3320</v>
+        <v>3326</v>
       </c>
       <c r="V7" s="22" t="s">
         <v>3311</v>
@@ -11421,10 +11406,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA7" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.5">
@@ -11453,7 +11438,7 @@
         <v>43878.9375</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="V8" s="22" t="s">
         <v>3311</v>
@@ -11462,13 +11447,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA8" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB8" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="409.5">
+    </row>
+    <row r="9" spans="1:40" ht="363">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11490,11 +11475,17 @@
       <c r="G9" s="12" t="s">
         <v>3302</v>
       </c>
+      <c r="M9" s="13">
+        <v>2</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
       <c r="T9" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>3322</v>
+        <v>3327</v>
       </c>
       <c r="V9" s="22" t="s">
         <v>3311</v>
@@ -11503,10 +11494,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA9" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB9" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.5">
@@ -11531,11 +11522,17 @@
       <c r="G10" s="12" t="s">
         <v>3303</v>
       </c>
+      <c r="M10" s="13">
+        <v>9</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1</v>
+      </c>
       <c r="T10" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="V10" s="22" t="s">
         <v>3311</v>
@@ -11544,13 +11541,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB10" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="409.5">
+    </row>
+    <row r="11" spans="1:40" ht="363">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11576,7 +11573,7 @@
         <v>43878.9375</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="V11" s="22" t="s">
         <v>3311</v>
@@ -11585,10 +11582,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA11" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="409.5">
@@ -11613,11 +11610,17 @@
       <c r="G12" s="12" t="s">
         <v>3305</v>
       </c>
+      <c r="M12" s="13">
+        <v>3</v>
+      </c>
+      <c r="O12" s="13">
+        <v>2</v>
+      </c>
       <c r="T12" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>3325</v>
+        <v>3319</v>
       </c>
       <c r="V12" s="22" t="s">
         <v>3311</v>
@@ -11626,13 +11629,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="409.5">
+    </row>
+    <row r="13" spans="1:40" ht="363">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11654,11 +11657,17 @@
       <c r="G13" s="12" t="s">
         <v>3306</v>
       </c>
+      <c r="M13" s="13">
+        <v>9</v>
+      </c>
+      <c r="O13" s="13">
+        <v>8</v>
+      </c>
       <c r="T13" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="V13" s="22" t="s">
         <v>3311</v>
@@ -11667,10 +11676,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA13" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="409.5">
@@ -11695,11 +11704,17 @@
       <c r="G14" s="12" t="s">
         <v>3307</v>
       </c>
+      <c r="M14" s="13">
+        <v>4</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3</v>
+      </c>
       <c r="T14" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>3327</v>
+        <v>3320</v>
       </c>
       <c r="V14" s="22" t="s">
         <v>3311</v>
@@ -11708,13 +11723,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB14" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="409.5">
+    </row>
+    <row r="15" spans="1:40" ht="363">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -11736,11 +11751,17 @@
       <c r="G15" s="12" t="s">
         <v>3308</v>
       </c>
+      <c r="M15" s="13">
+        <v>3</v>
+      </c>
+      <c r="O15" s="13">
+        <v>3</v>
+      </c>
       <c r="T15" s="15">
         <v>43878.9375</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>3311</v>
@@ -11749,10 +11770,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA15" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="409.5">
@@ -11777,14 +11798,20 @@
       <c r="G16" s="12" t="s">
         <v>3309</v>
       </c>
+      <c r="M16" s="13">
+        <v>8</v>
+      </c>
       <c r="N16" s="13">
         <v>1</v>
       </c>
+      <c r="O16" s="13">
+        <v>4</v>
+      </c>
       <c r="T16" s="21">
         <v>43878.9375</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>3329</v>
+        <v>3321</v>
       </c>
       <c r="V16" s="22" t="s">
         <v>3311</v>
@@ -11793,13 +11820,13 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA16" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB16" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="409.5">
+    </row>
+    <row r="17" spans="1:28" ht="363">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -11824,11 +11851,8 @@
       <c r="K17" s="13">
         <v>4</v>
       </c>
-      <c r="M17" s="13">
-        <v>91</v>
-      </c>
       <c r="O17" s="13">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="P17" s="13">
         <v>2</v>
@@ -11837,7 +11861,7 @@
         <v>43878.9375</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="V17" s="22" t="s">
         <v>3311</v>
@@ -11846,10 +11870,10 @@
         <v>43879.415277777778</v>
       </c>
       <c r="AA17" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB17" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="18" spans="1:28">
